--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/HAWAII_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/HAWAII_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,29 +360,29 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C8">
@@ -545,41 +545,6 @@
       </c>
       <c r="D12">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/HAWAII_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/HAWAII_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
